--- a/storage/app/public/examples/cars_example.xlsx
+++ b/storage/app/public/examples/cars_example.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Share\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Список" sheetId="1" r:id="rId1"/>
+    <sheet name="Справочники" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Название компании</t>
   </si>
@@ -38,28 +47,50 @@
   </si>
   <si>
     <t>Срок действия СКЗИ</t>
+  </si>
+  <si>
+    <t>Категории тс</t>
+  </si>
+  <si>
+    <t>Прицеп</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>М - мототехника (мопеды\мотоциклы\трициклы и т.п.)</t>
+  </si>
+  <si>
+    <t>В - легковые и грузовые автомобили до 3.5 тн</t>
+  </si>
+  <si>
+    <t>С - грузовые т\с от 3.5 тн</t>
+  </si>
+  <si>
+    <t>Ст - спецтранспорт</t>
+  </si>
+  <si>
+    <t>D - автобусы</t>
+  </si>
+  <si>
+    <t>Тм - трамвай\троллейбусы</t>
+  </si>
+  <si>
+    <t>Tr - трактора\с-х техника</t>
+  </si>
+  <si>
+    <t>Е - прицепы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -74,12 +105,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -87,82 +118,106 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -361,7 +416,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -379,7 +434,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -408,7 +463,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -433,7 +488,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -458,7 +513,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -483,7 +538,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -508,7 +563,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -533,7 +588,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -558,7 +613,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +638,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -608,7 +663,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -621,9 +676,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -640,7 +701,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -658,7 +719,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -683,7 +744,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +769,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -733,7 +794,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +819,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -783,7 +844,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +869,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +894,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,7 +919,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -883,7 +944,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,9 +957,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -912,7 +979,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -930,7 +997,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +1026,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -984,7 +1051,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1009,7 +1076,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1101,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1126,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,7 +1151,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1176,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1201,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +1226,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,75 +1239,163 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Справочники!$A$2:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Справочники!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="38.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25.5">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>